--- a/Выполнение заданий.xlsx
+++ b/Выполнение заданий.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Блок задач</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>на проверке</t>
+  </si>
+  <si>
+    <t>ГСМ</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>Калькулятор</t>
+  </si>
+  <si>
+    <t>Исключения</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Запись в файл</t>
   </si>
 </sst>
 </file>
@@ -76,15 +100,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +122,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -378,13 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -558,46 +613,128 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Выполнение заданий.xlsx
+++ b/Выполнение заданий.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Блок задач</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>на проверке</t>
   </si>
   <si>
     <t>ГСМ</t>
@@ -427,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,27 +666,27 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -702,16 +699,20 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>

--- a/Выполнение заданий.xlsx
+++ b/Выполнение заданий.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Блок задач</t>
   </si>
@@ -425,7 +425,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,9 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
